--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -323,9 +323,6 @@
     <t>3.6.6</t>
   </si>
   <si>
-    <t>see allocation table</t>
-  </si>
-  <si>
     <t>All track (Balise, Radio and Loop) messages as they contain location references</t>
   </si>
   <si>
@@ -409,6 +406,147 @@
   <si>
     <t xml:space="preserve">Here are the appropriate types and constants: 
 </t>
+  </si>
+  <si>
+    <t>3.6.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.2.1</t>
+  </si>
+  <si>
+    <t>3.6.4.3</t>
+  </si>
+  <si>
+    <t>3.6.4.6</t>
+  </si>
+  <si>
+    <t>3.6.3.2.2</t>
+  </si>
+  <si>
+    <t>3.6.3.2.3</t>
+  </si>
+  <si>
+    <t>3.6.3.2.4</t>
+  </si>
+  <si>
+    <t>3.6.3.2.5</t>
+  </si>
+  <si>
+    <t>3.6.5.1.7</t>
+  </si>
+  <si>
+    <t>3.6.4.4</t>
+  </si>
+  <si>
+    <t>3.6.4.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.2</t>
+  </si>
+  <si>
+    <t>3.6.2.2.3</t>
+  </si>
+  <si>
+    <t>3.6.5.1.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.8</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 a)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 b)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.2</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3.1</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4.1</t>
+  </si>
+  <si>
+    <t>Balises</t>
+  </si>
+  <si>
+    <t>Train Position Data</t>
+  </si>
+  <si>
+    <t>Position-Report Parameter</t>
+  </si>
+  <si>
+    <t>Internal Data Storage for location Related Information</t>
+  </si>
+  <si>
+    <t>List of Track Information Objects (with location reference)</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>Track Information Objects (with location reference) extracted from a track message (Balise, Radio or Loop)</t>
+  </si>
+  <si>
+    <t>Track_Object</t>
+  </si>
+  <si>
+    <t>Subset_26</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>3.6.1.1</t>
+  </si>
+  <si>
+    <t>nid_RBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from the NID_LRBG for radio messages and NID_BG for balise messages, (Loops ?) </t>
+  </si>
+  <si>
+    <t>d_Distance</t>
+  </si>
+  <si>
+    <t>l_length</t>
+  </si>
+  <si>
+    <t>Distance to Object from Reference (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>if Profile Data, Length of Object  (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>x_value</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Definies validity of object</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Gives Object specific data as a structure (specific for all track objects)</t>
   </si>
 </sst>
 </file>
@@ -486,7 +624,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,8 +661,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -643,11 +799,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -739,6 +932,33 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,17 +1401,17 @@
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -1202,7 +1422,7 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -1263,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1377,14 +1597,14 @@
         <v>63</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
@@ -1403,148 +1623,102 @@
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
+      <c r="H5" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
     </row>
-    <row r="6" spans="1:10" ht="30">
-      <c r="A6" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>59</v>
-      </c>
+    <row r="6" spans="1:10">
+      <c r="A6" s="23"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="14"/>
-      <c r="D6" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="22" t="s">
-        <v>77</v>
-      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="90">
+        <v>119</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="23"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
-      <c r="E7" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="22" t="s">
-        <v>78</v>
-      </c>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
       <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
+      <c r="H7" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="1:10" ht="45">
-      <c r="A8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>60</v>
-      </c>
+    <row r="8" spans="1:10">
+      <c r="A8" s="23"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="14"/>
-      <c r="D8" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="22" t="s">
-        <v>82</v>
-      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I8" s="22">
-        <v>1</v>
-      </c>
-      <c r="J8" s="22" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="90">
+        <v>121</v>
+      </c>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="23"/>
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="22" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="22" t="s">
-        <v>83</v>
-      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
       <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
+      <c r="H9" s="22" t="s">
+        <v>122</v>
+      </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
     </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>61</v>
-      </c>
+    <row r="10" spans="1:10">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="14"/>
-      <c r="D10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>88</v>
-      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" s="22">
-        <v>1</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
+        <v>123</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="23"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
-      <c r="E11" s="22" t="s">
-        <v>86</v>
-      </c>
+      <c r="E11" s="22"/>
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
+      <c r="H11" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
     </row>
-    <row r="12" spans="1:10" ht="30">
+    <row r="12" spans="1:10">
       <c r="A12" s="23"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="22" t="s">
-        <v>87</v>
-      </c>
+      <c r="E12" s="22"/>
       <c r="F12" s="22"/>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
@@ -1553,90 +1727,80 @@
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="23" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
         <v>63</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="I13" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="45">
-      <c r="A14" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>62</v>
-      </c>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="90">
+      <c r="A14" s="23"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="14"/>
-      <c r="D14" s="14" t="s">
-        <v>63</v>
-      </c>
+      <c r="D14" s="14"/>
       <c r="E14" s="22" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" s="22">
-        <v>0</v>
-      </c>
-      <c r="J14" s="22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="45">
-      <c r="A15" s="14"/>
+        <v>101</v>
+      </c>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
       <c r="D15" s="14"/>
-      <c r="E15" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>96</v>
-      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
       <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
+      <c r="H15" s="22" t="s">
+        <v>102</v>
+      </c>
       <c r="I15" s="22"/>
-      <c r="J15" s="14"/>
+      <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14"/>
+      <c r="A16" s="23"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
+      <c r="H16" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="I16" s="22"/>
-      <c r="J16" s="14"/>
+      <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14"/>
+      <c r="A17" s="23"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
@@ -1645,67 +1809,441 @@
       <c r="G17" s="22"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
-      <c r="J17" s="14"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="45">
+      <c r="A18" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>81</v>
+      </c>
       <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="14"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
+      <c r="H18" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="22">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="90">
+      <c r="A19" s="23"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="E19" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>82</v>
+      </c>
       <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
+      <c r="H19" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="I19" s="22"/>
-      <c r="J19" s="14"/>
+      <c r="J19" s="22"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
+      <c r="A20" s="23"/>
       <c r="B20" s="14"/>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
+      <c r="H20" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="I20" s="22"/>
-      <c r="J20" s="14"/>
+      <c r="J20" s="22"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14"/>
+      <c r="A21" s="23"/>
       <c r="B21" s="14"/>
       <c r="C21" s="14"/>
       <c r="D21" s="14"/>
       <c r="E21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
+      <c r="H21" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="I21" s="22"/>
-      <c r="J21" s="14"/>
+      <c r="J21" s="22"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14"/>
+      <c r="A22" s="23"/>
       <c r="B22" s="14"/>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
       <c r="E22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
+      <c r="H22" s="22" t="s">
+        <v>100</v>
+      </c>
       <c r="I22" s="22"/>
-      <c r="J22" s="14"/>
+      <c r="J22" s="22"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="23"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="23"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+    </row>
+    <row r="26" spans="1:10" ht="45">
+      <c r="A26" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="22">
+        <v>1</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="30">
+      <c r="A27" s="23"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+    </row>
+    <row r="28" spans="1:10" ht="30">
+      <c r="A28" s="23"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="23"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="23"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="23"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="23"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="23"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="22"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="23"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+    </row>
+    <row r="35" spans="1:10" ht="30">
+      <c r="A35" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="22"/>
+      <c r="H35" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="I35" s="22">
+        <v>0</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="45">
+      <c r="A36" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="F36" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G36" s="22"/>
+      <c r="H36" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I36" s="22">
+        <v>0</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="45">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="G37" s="22"/>
+      <c r="H37" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" s="22"/>
+      <c r="J37" s="14"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I38" s="22"/>
+      <c r="J38" s="14"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="22"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="22"/>
+      <c r="H39" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="I39" s="22"/>
+      <c r="J39" s="14"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="22"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="22"/>
+      <c r="J40" s="14"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="22"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="22"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="22"/>
+      <c r="J41" s="14"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="22"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="22"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="22"/>
+      <c r="J42" s="14"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="14"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="22"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="22"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="22"/>
+      <c r="J44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1993,13 +2531,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1:L4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="12" max="12" width="50.140625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
       <c r="A1" s="30" t="s">
@@ -2117,145 +2659,189 @@
       <c r="K4" s="27"/>
       <c r="L4" s="27"/>
     </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+    <row r="5" spans="1:12" s="36" customFormat="1" ht="15.75">
+      <c r="A5" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="43"/>
+    </row>
+    <row r="6" spans="1:12" s="36" customFormat="1" ht="30">
+      <c r="A6" s="34" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6" s="34"/>
+      <c r="L6" s="44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="36" customFormat="1" ht="15.75">
+      <c r="A7" s="37" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="36" customFormat="1" ht="31.5">
+      <c r="A8" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="37"/>
+      <c r="L8" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="36" customFormat="1" ht="31.5">
+      <c r="A9" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="36" customFormat="1" ht="31.5">
+      <c r="A10" s="37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="36" customFormat="1" ht="31.5">
+      <c r="A11" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="36" customFormat="1" ht="15.75">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="37"/>
+      <c r="L12" s="37"/>
+    </row>
+    <row r="13" spans="1:12" s="36" customFormat="1" ht="15.75">
+      <c r="A13" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="40"/>
+    </row>
+    <row r="14" spans="1:12" s="35" customFormat="1">
+      <c r="A14" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="14"/>
@@ -2271,8 +2857,349 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
     </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+    </row>
+    <row r="22" spans="1:12" s="35" customFormat="1">
+      <c r="A22" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="14"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="14"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+    </row>
+    <row r="28" spans="1:12" s="35" customFormat="1">
+      <c r="A28" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+    </row>
+    <row r="34" spans="1:12" s="35" customFormat="1">
+      <c r="A34" s="34" t="s">
+        <v>127</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+    </row>
+    <row r="35" spans="1:12">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="14"/>
+      <c r="J37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="14"/>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
@@ -2280,19 +3207,9 @@
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2546,7 +3463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2586,62 +3503,62 @@
       </c>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="17"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2650,11 +3567,11 @@
         <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -2665,9 +3582,10 @@
     <mergeCell ref="B3:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId2"/>
+    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
   </oleObjects>
 </worksheet>
 </file>
--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -547,6 +547,12 @@
   </si>
   <si>
     <t>Gives Object specific data as a structure (specific for all track objects)</t>
+  </si>
+  <si>
+    <t>nominalLocation</t>
+  </si>
+  <si>
+    <t>Absolute Position on the trip</t>
   </si>
 </sst>
 </file>
@@ -903,6 +909,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -919,24 +934,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -957,8 +954,17 @@
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1323,15 +1329,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
     </row>
     <row r="2" spans="1:7" ht="15.75">
       <c r="A2" s="1"/>
@@ -1439,13 +1445,13 @@
       <c r="A27" s="4"/>
     </row>
     <row r="28" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:5" ht="15.75">
       <c r="A29" s="1"/>
@@ -1534,16 +1540,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -1558,18 +1564,18 @@
       <c r="H2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="27"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="32"/>
       <c r="E3" s="11" t="s">
         <v>26</v>
       </c>
@@ -1582,8 +1588,8 @@
       <c r="H3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="23" t="s">
@@ -2305,28 +2311,28 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I2" s="12" t="s">
@@ -2334,31 +2340,31 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
       <c r="I3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
       <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
@@ -2533,8 +2539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2544,73 +2550,73 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="41" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="30" t="s">
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="32" t="s">
+      <c r="J1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="K1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="26" t="s">
+      <c r="E3" s="31" t="s">
         <v>23</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -2625,24 +2631,24 @@
       <c r="I3" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="26" t="s">
+      <c r="K3" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="L3" s="26" t="s">
+      <c r="L3" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="15.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
       <c r="F4" s="10" t="s">
         <v>26</v>
       </c>
@@ -2655,210 +2661,216 @@
       <c r="I4" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="29"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-    </row>
-    <row r="5" spans="1:12" s="36" customFormat="1" ht="15.75">
-      <c r="A5" s="41" t="s">
+      <c r="J4" s="34"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+    </row>
+    <row r="5" spans="1:12" s="26" customFormat="1" ht="15.75">
+      <c r="A5" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="43"/>
-    </row>
-    <row r="6" spans="1:12" s="36" customFormat="1" ht="30">
-      <c r="A6" s="34" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
+    </row>
+    <row r="6" spans="1:12" s="26" customFormat="1" ht="30">
+      <c r="A6" s="24" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34" t="s">
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="K6" s="34"/>
-      <c r="L6" s="44" t="s">
+      <c r="K6" s="24"/>
+      <c r="L6" s="28" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:12" s="36" customFormat="1" ht="15.75">
-      <c r="A7" s="37" t="s">
+    <row r="7" spans="1:12" s="26" customFormat="1" ht="15.75">
+      <c r="A7" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37" t="s">
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:12" s="36" customFormat="1" ht="31.5">
-      <c r="A8" s="37" t="s">
+    <row r="8" spans="1:12" s="26" customFormat="1" ht="31.5">
+      <c r="A8" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37" t="s">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37"/>
-      <c r="L8" s="37" t="s">
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="27" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="36" customFormat="1" ht="31.5">
-      <c r="A9" s="37" t="s">
+    <row r="9" spans="1:12" s="26" customFormat="1" ht="31.5">
+      <c r="A9" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37" t="s">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="36" customFormat="1" ht="31.5">
-      <c r="A10" s="37" t="s">
+    <row r="10" spans="1:12" s="26" customFormat="1" ht="31.5">
+      <c r="A10" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="37" t="s">
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="11" spans="1:12" s="36" customFormat="1" ht="31.5">
-      <c r="A11" s="37" t="s">
+    <row r="11" spans="1:12" s="26" customFormat="1" ht="31.5">
+      <c r="A11" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37" t="s">
+      <c r="B11" s="27"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37" t="s">
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="36" customFormat="1" ht="15.75">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="37"/>
-      <c r="L12" s="37"/>
-    </row>
-    <row r="13" spans="1:12" s="36" customFormat="1" ht="15.75">
-      <c r="A13" s="38" t="s">
+    <row r="12" spans="1:12" s="26" customFormat="1" ht="15.75">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75">
+      <c r="A13" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="40"/>
-    </row>
-    <row r="14" spans="1:12" s="35" customFormat="1">
-      <c r="A14" s="34" t="s">
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+    </row>
+    <row r="14" spans="1:12" s="25" customFormat="1">
+      <c r="A14" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="34"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="14"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75">
+      <c r="A15" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75">
+      <c r="A16" s="27" t="s">
+        <v>147</v>
+      </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
@@ -2869,35 +2881,49 @@
       <c r="I16" s="14"/>
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="L16" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="31.5">
+      <c r="A17" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="B17" s="27"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="31.5">
+      <c r="A18" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="14"/>
@@ -2941,21 +2967,21 @@
       <c r="K21" s="14"/>
       <c r="L21" s="14"/>
     </row>
-    <row r="22" spans="1:12" s="35" customFormat="1">
-      <c r="A22" s="34" t="s">
+    <row r="22" spans="1:12" s="25" customFormat="1">
+      <c r="A22" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="14"/>
@@ -3027,21 +3053,21 @@
       <c r="K27" s="14"/>
       <c r="L27" s="14"/>
     </row>
-    <row r="28" spans="1:12" s="35" customFormat="1">
-      <c r="A28" s="34" t="s">
+    <row r="28" spans="1:12" s="25" customFormat="1">
+      <c r="A28" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="14"/>
@@ -3113,21 +3139,21 @@
       <c r="K33" s="14"/>
       <c r="L33" s="14"/>
     </row>
-    <row r="34" spans="1:12" s="35" customFormat="1">
-      <c r="A34" s="34" t="s">
+    <row r="34" spans="1:12" s="25" customFormat="1">
+      <c r="A34" s="24" t="s">
         <v>127</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="14"/>
@@ -3187,6 +3213,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="F1:F2"/>
@@ -3203,10 +3233,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3255,25 +3281,25 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="31" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="12" t="s">
@@ -3281,29 +3307,29 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="31.5" customHeight="1">
-      <c r="A3" s="27"/>
-      <c r="B3" s="27"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
       <c r="H3" s="12" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
       <c r="C4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
       <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8">
@@ -3474,28 +3500,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="31" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15" customHeight="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:5" ht="15.75">
       <c r="A5" s="17" t="s">

--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -936,6 +936,18 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -952,18 +964,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1407,17 +1407,17 @@
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5">
+    <row r="19" spans="1:5" ht="15.75">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="16.5">
+    <row r="20" spans="1:5" ht="15.75">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="16.5">
+    <row r="21" spans="1:5">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -1428,7 +1428,7 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="16.5">
+    <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
@@ -2539,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2550,58 +2550,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="41" t="s">
+      <c r="G1" s="35" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="I1" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="41" t="s">
+      <c r="K1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="41" t="s">
+      <c r="L1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
       <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="31" t="s">
@@ -2666,20 +2666,20 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="26" customFormat="1" ht="15.75">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="40"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="44"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="30">
       <c r="A6" s="24" t="s">
@@ -2818,20 +2818,20 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="40"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="40"/>
+      <c r="L13" s="41"/>
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1">
       <c r="A14" s="24" t="s">
@@ -3213,6 +3213,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G1:G2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
     <mergeCell ref="K1:K2"/>
@@ -3229,10 +3233,6 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="G1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3489,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -3500,16 +3500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="42"/>
-      <c r="B2" s="42"/>
+      <c r="A2" s="36"/>
+      <c r="B2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3529,21 +3529,21 @@
       </c>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="16.5">
+    <row r="6" spans="1:5" ht="15.75">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="16.5">
+    <row r="7" spans="1:5" ht="15.75">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="17"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="16.5">
+    <row r="8" spans="1:5" ht="15.75">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
@@ -3552,7 +3552,7 @@
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="16.5">
+    <row r="9" spans="1:5" ht="15.75">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -3561,7 +3561,7 @@
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="16.5">
+    <row r="10" spans="1:5" ht="15.75">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
@@ -3570,7 +3570,7 @@
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="16.5">
+    <row r="11" spans="1:5" ht="15.75">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3579,7 @@
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="16.5">
+    <row r="12" spans="1:5" ht="15.75">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="16.5">
+    <row r="14" spans="1:5">
       <c r="E14" s="3"/>
     </row>
   </sheetData>

--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="5"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -278,9 +278,6 @@
     </r>
   </si>
   <si>
-    <t>This Functin describs the location principles applied in ETCS. Theirfore the location data and all basic management functions are specified. In addition the Position reporting to the RBC is presented.</t>
-  </si>
-  <si>
     <t>Validate Data</t>
   </si>
   <si>
@@ -404,162 +401,214 @@
     <t>{subset-26}</t>
   </si>
   <si>
-    <t xml:space="preserve">Here are the appropriate types and constants: 
+    <t>3.6.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.2.1</t>
+  </si>
+  <si>
+    <t>3.6.4.3</t>
+  </si>
+  <si>
+    <t>3.6.4.6</t>
+  </si>
+  <si>
+    <t>3.6.3.2.2</t>
+  </si>
+  <si>
+    <t>3.6.3.2.3</t>
+  </si>
+  <si>
+    <t>3.6.3.2.4</t>
+  </si>
+  <si>
+    <t>3.6.3.2.5</t>
+  </si>
+  <si>
+    <t>3.6.5.1.7</t>
+  </si>
+  <si>
+    <t>3.6.4.4</t>
+  </si>
+  <si>
+    <t>3.6.4.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.2</t>
+  </si>
+  <si>
+    <t>3.6.2.2.3</t>
+  </si>
+  <si>
+    <t>3.6.5.1.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.8</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 a)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 b)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.2</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3.1</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4.1</t>
+  </si>
+  <si>
+    <t>Balises</t>
+  </si>
+  <si>
+    <t>Train Position Data</t>
+  </si>
+  <si>
+    <t>Position-Report Parameter</t>
+  </si>
+  <si>
+    <t>Internal Data Storage for location Related Information</t>
+  </si>
+  <si>
+    <t>List of Track Information Objects (with location reference)</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>Track Information Objects (with location reference) extracted from a track message (Balise, Radio or Loop)</t>
+  </si>
+  <si>
+    <t>Track_Object</t>
+  </si>
+  <si>
+    <t>Subset_26</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>3.6.1.1</t>
+  </si>
+  <si>
+    <t>nid_RBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from the NID_LRBG for radio messages and NID_BG for balise messages, (Loops ?) </t>
+  </si>
+  <si>
+    <t>d_Distance</t>
+  </si>
+  <si>
+    <t>l_length</t>
+  </si>
+  <si>
+    <t>Distance to Object from Reference (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>if Profile Data, Length of Object  (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>x_value</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Definies validity of object</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Gives Object specific data as a structure (specific for all track objects)</t>
+  </si>
+  <si>
+    <t>nominalLocation</t>
+  </si>
+  <si>
+    <t>Absolute Position on the trip</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>                    Scade Model (SUBSET_26-3-3-0_Chapter-3-6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>                    DetermineTrainLocation.docx</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An equivalent representation of the model shown above in SCADE with all data types strictly defined and related to Subset 026-7 and -8 is this: </t>
+  </si>
+  <si>
+    <t>This model analyzes how to determine the train location information as specified in Subset026-3.6 “Location principles, train position and train orientation”. 
+A detailed description is given in the embedded file "DetermineTrainLocation.docx"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>All required data types strictly defined and related to Subset 026-7 and -8 are documented in "DetermineTrainLocation.docx", embedded on Tab "Description" of this sheet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>3.6.4.1</t>
-  </si>
-  <si>
-    <t>3.6.4.2.1</t>
-  </si>
-  <si>
-    <t>3.6.4.3</t>
-  </si>
-  <si>
-    <t>3.6.4.6</t>
-  </si>
-  <si>
-    <t>3.6.3.2.2</t>
-  </si>
-  <si>
-    <t>3.6.3.2.3</t>
-  </si>
-  <si>
-    <t>3.6.3.2.4</t>
-  </si>
-  <si>
-    <t>3.6.3.2.5</t>
-  </si>
-  <si>
-    <t>3.6.5.1.7</t>
-  </si>
-  <si>
-    <t>3.6.4.4</t>
-  </si>
-  <si>
-    <t>3.6.4.4.1</t>
-  </si>
-  <si>
-    <t>3.6.4.7.1</t>
-  </si>
-  <si>
-    <t>3.6.4.7.2</t>
-  </si>
-  <si>
-    <t>3.6.2.2.3</t>
-  </si>
-  <si>
-    <t>3.6.5.1.1</t>
-  </si>
-  <si>
-    <t>3.6.5.1.4</t>
-  </si>
-  <si>
-    <t>3.6.5.1.4.1</t>
-  </si>
-  <si>
-    <t>3.6.5.1.8</t>
-  </si>
-  <si>
-    <t>3.6.3.1.1 a)</t>
-  </si>
-  <si>
-    <t>3.6.3.1.1 b)</t>
-  </si>
-  <si>
-    <t>3.6.3.1.2</t>
-  </si>
-  <si>
-    <t>3.6.3.1.3</t>
-  </si>
-  <si>
-    <t>3.6.3.1.3.1</t>
-  </si>
-  <si>
-    <t>3.6.3.1.4</t>
-  </si>
-  <si>
-    <t>3.6.3.1.4.1</t>
-  </si>
-  <si>
-    <t>Balises</t>
-  </si>
-  <si>
-    <t>Train Position Data</t>
-  </si>
-  <si>
-    <t>Position-Report Parameter</t>
-  </si>
-  <si>
-    <t>Internal Data Storage for location Related Information</t>
-  </si>
-  <si>
-    <t>List of Track Information Objects (with location reference)</t>
-  </si>
-  <si>
-    <t>Input Variables</t>
-  </si>
-  <si>
-    <t>Track Information Objects (with location reference) extracted from a track message (Balise, Radio or Loop)</t>
-  </si>
-  <si>
-    <t>Track_Object</t>
-  </si>
-  <si>
-    <t>Subset_26</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>3.6.1.1</t>
-  </si>
-  <si>
-    <t>nid_RBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from the NID_LRBG for radio messages and NID_BG for balise messages, (Loops ?) </t>
-  </si>
-  <si>
-    <t>d_Distance</t>
-  </si>
-  <si>
-    <t>l_length</t>
-  </si>
-  <si>
-    <t>Distance to Object from Reference (calculated in reference to Q_SCALE)</t>
-  </si>
-  <si>
-    <t>if Profile Data, Length of Object  (calculated in reference to Q_SCALE)</t>
-  </si>
-  <si>
-    <t>x_value</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>Definies validity of object</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Gives Object specific data as a structure (specific for all track objects)</t>
-  </si>
-  <si>
-    <t>nominalLocation</t>
-  </si>
-  <si>
-    <t>Absolute Position on the trip</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +675,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -986,13 +1041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1013,6 +1068,53 @@
         <a:xfrm>
           <a:off x="0" y="7505700"/>
           <a:ext cx="16725900" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>643370</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>68407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15551727"/>
+          <a:ext cx="17857643" cy="8086725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,15 +1419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
@@ -1390,7 +1493,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="21">
-        <v>41591</v>
+        <v>41598</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -1433,57 +1536,76 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:5">
+      <c r="A25" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="2" t="s">
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="111" customHeight="1">
+      <c r="A30" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="19"/>
-      <c r="B66" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="19"/>
+      <c r="B68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="20"/>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="20"/>
+      <c r="B69" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -1593,30 +1715,30 @@
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -1625,12 +1747,12 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1644,7 +1766,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1658,7 +1780,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1672,7 +1794,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1686,7 +1808,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1700,7 +1822,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1714,7 +1836,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1733,30 +1855,30 @@
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90">
@@ -1765,14 +1887,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1786,7 +1908,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1800,7 +1922,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1819,30 +1941,30 @@
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="A18" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18" s="22">
         <v>1</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90">
@@ -1851,14 +1973,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1872,7 +1994,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -1886,7 +2008,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1900,7 +2022,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -1914,7 +2036,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -1928,7 +2050,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1947,30 +2069,30 @@
     </row>
     <row r="26" spans="1:10" ht="45">
       <c r="A26" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="22">
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -1979,12 +2101,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1995,12 +2117,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -2014,7 +2136,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -2028,7 +2150,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2042,7 +2164,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2056,7 +2178,7 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2070,7 +2192,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2089,58 +2211,58 @@
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="22">
         <v>0</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I36" s="22">
         <v>0</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
@@ -2149,14 +2271,14 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="14"/>
@@ -2170,7 +2292,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="14"/>
@@ -2184,7 +2306,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="14"/>
@@ -2198,7 +2320,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="14"/>
@@ -2667,7 +2789,7 @@
     </row>
     <row r="5" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A5" s="42" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -2683,31 +2805,31 @@
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="30">
       <c r="A6" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2720,18 +2842,18 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A8" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2740,18 +2862,18 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A9" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -2760,18 +2882,18 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -2780,18 +2902,18 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A11" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -2800,7 +2922,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="26" customFormat="1" ht="15.75">
@@ -2819,7 +2941,7 @@
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A13" s="39" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="40"/>
       <c r="C13" s="40"/>
@@ -2835,7 +2957,7 @@
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2851,7 +2973,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2864,12 +2986,12 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2882,18 +3004,18 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2902,18 +3024,18 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -2922,7 +3044,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2969,7 +3091,7 @@
     </row>
     <row r="22" spans="1:12" s="25" customFormat="1">
       <c r="A22" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -3055,7 +3177,7 @@
     </row>
     <row r="28" spans="1:12" s="25" customFormat="1">
       <c r="A28" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3141,7 +3263,7 @@
     </row>
     <row r="34" spans="1:12" s="25" customFormat="1">
       <c r="A34" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3213,14 +3335,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="F1:F2"/>
@@ -3233,6 +3347,14 @@
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3489,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3548,7 +3670,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3557,7 +3679,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3566,7 +3688,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3575,7 +3697,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3584,7 +3706,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -3593,7 +3715,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3609,9 +3731,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-  </oleObjects>
 </worksheet>
 </file>
--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -278,6 +278,9 @@
     </r>
   </si>
   <si>
+    <t>This Functin describs the location principles applied in ETCS. Theirfore the location data and all basic management functions are specified. In addition the Position reporting to the RBC is presented.</t>
+  </si>
+  <si>
     <t>Validate Data</t>
   </si>
   <si>
@@ -401,6 +404,10 @@
     <t>{subset-26}</t>
   </si>
   <si>
+    <t xml:space="preserve">Here are the appropriate types and constants: 
+</t>
+  </si>
+  <si>
     <t>3.6.4.1</t>
   </si>
   <si>
@@ -546,69 +553,13 @@
   </si>
   <si>
     <t>Absolute Position on the trip</t>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>                    Scade Model (SUBSET_26-3-3-0_Chapter-3-6)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>                    DetermineTrainLocation.docx</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">An equivalent representation of the model shown above in SCADE with all data types strictly defined and related to Subset 026-7 and -8 is this: </t>
-  </si>
-  <si>
-    <t>This model analyzes how to determine the train location information as specified in Subset026-3.6 “Location principles, train position and train orientation”. 
-A detailed description is given in the embedded file "DetermineTrainLocation.docx"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>All required data types strictly defined and related to Subset 026-7 and -8 are documented in "DetermineTrainLocation.docx", embedded on Tab "Description" of this sheet.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,12 +626,6 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -991,18 +936,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1019,6 +952,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1041,13 +986,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1068,53 +1013,6 @@
         <a:xfrm>
           <a:off x="0" y="7505700"/>
           <a:ext cx="16725900" cy="6029325"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="1">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>173182</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>643370</xdr:colOff>
-      <xdr:row>114</xdr:row>
-      <xdr:rowOff>68407</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2052" name="Picture 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="15551727"/>
-          <a:ext cx="17857643" cy="8086725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,16 +1317,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G71"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Z71" sqref="Z71"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
@@ -1493,7 +1390,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="21">
-        <v>41598</v>
+        <v>41591</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -1510,17 +1407,17 @@
     <row r="18" spans="1:5" ht="15.75">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75">
+    <row r="19" spans="1:5" ht="16.5">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75">
+    <row r="20" spans="1:5" ht="16.5">
       <c r="A20" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" ht="16.5">
       <c r="A21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="18.75">
@@ -1531,81 +1428,62 @@
     <row r="23" spans="1:5" ht="18.75">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" ht="16.5">
       <c r="A24" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="3" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" ht="18.75">
-      <c r="A28" s="2" t="s">
+    <row r="25" spans="1:5" ht="15.75">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75">
+      <c r="A26" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="18.75">
-      <c r="A29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="111" customHeight="1">
-      <c r="A30" s="30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1" ht="18.75">
-      <c r="A33" s="2" t="s">
+    <row r="27" spans="1:5" ht="18.75">
+      <c r="A27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" ht="66.75" customHeight="1">
+      <c r="A28" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" ht="15.75">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" ht="18.75">
+      <c r="A31" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="19"/>
-      <c r="B68" t="s">
+    <row r="66" spans="1:2">
+      <c r="A66" s="19"/>
+      <c r="B66" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="20"/>
-      <c r="B69" t="s">
+    <row r="67" spans="1:2">
+      <c r="A67" s="20"/>
+      <c r="B67" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A28:E28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-  <oleObjects>
-    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
-  </oleObjects>
 </worksheet>
 </file>
 
@@ -1715,30 +1593,30 @@
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E4" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -1747,12 +1625,12 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1766,7 +1644,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1780,7 +1658,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1794,7 +1672,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1808,7 +1686,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1822,7 +1700,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1836,7 +1714,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1855,30 +1733,30 @@
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="23" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90">
@@ -1887,14 +1765,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="22" t="s">
         <v>77</v>
-      </c>
-      <c r="F14" s="22" t="s">
-        <v>76</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1908,7 +1786,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1922,7 +1800,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1941,30 +1819,30 @@
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="A18" s="23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E18" s="22" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F18" s="22" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I18" s="22">
         <v>1</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90">
@@ -1973,14 +1851,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="22" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1994,7 +1872,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -2008,7 +1886,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -2022,7 +1900,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -2036,7 +1914,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -2050,7 +1928,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -2069,30 +1947,30 @@
     </row>
     <row r="26" spans="1:10" ht="45">
       <c r="A26" s="23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I26" s="22">
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -2101,12 +1979,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -2117,12 +1995,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="22" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -2136,7 +2014,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -2150,7 +2028,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2164,7 +2042,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2178,7 +2056,7 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2192,7 +2070,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2211,58 +2089,58 @@
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="23" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="22" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I35" s="22">
         <v>0</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45">
       <c r="A36" s="23" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I36" s="22">
         <v>0</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
@@ -2271,14 +2149,14 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="22" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="14"/>
@@ -2292,7 +2170,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="14"/>
@@ -2306,7 +2184,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="14"/>
@@ -2320,7 +2198,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="14"/>
@@ -2661,7 +2539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2672,58 +2550,58 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="41" t="s">
         <v>37</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="37" t="s">
+      <c r="J1" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="16.5" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
     </row>
     <row r="3" spans="1:12" ht="31.5">
       <c r="A3" s="31" t="s">
@@ -2788,48 +2666,48 @@
       <c r="L4" s="32"/>
     </row>
     <row r="5" spans="1:12" s="26" customFormat="1" ht="15.75">
-      <c r="A5" s="42" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
-      <c r="I5" s="43"/>
-      <c r="J5" s="43"/>
-      <c r="K5" s="43"/>
-      <c r="L5" s="44"/>
+      <c r="A5" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="40"/>
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="30">
       <c r="A6" s="24" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2842,18 +2720,18 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A8" s="27" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2862,18 +2740,18 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A9" s="27" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -2882,18 +2760,18 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A10" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -2902,18 +2780,18 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A11" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -2922,7 +2800,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="26" customFormat="1" ht="15.75">
@@ -2940,24 +2818,24 @@
       <c r="L12" s="27"/>
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75">
-      <c r="A13" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="40"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="40"/>
-      <c r="L13" s="41"/>
+      <c r="A13" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2973,7 +2851,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="27" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2986,12 +2864,12 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="27" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -3004,18 +2882,18 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="27" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="27" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -3024,18 +2902,18 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="27" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -3044,7 +2922,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -3091,7 +2969,7 @@
     </row>
     <row r="22" spans="1:12" s="25" customFormat="1">
       <c r="A22" s="24" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -3177,7 +3055,7 @@
     </row>
     <row r="28" spans="1:12" s="25" customFormat="1">
       <c r="A28" s="24" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3263,7 +3141,7 @@
     </row>
     <row r="34" spans="1:12" s="25" customFormat="1">
       <c r="A34" s="24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3335,6 +3213,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="A13:L13"/>
     <mergeCell ref="A5:L5"/>
     <mergeCell ref="F1:F2"/>
@@ -3351,10 +3233,6 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="G1:G2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3612,7 +3490,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3622,16 +3500,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="41" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="42"/>
+      <c r="B2" s="42"/>
     </row>
     <row r="3" spans="1:5" ht="15" customHeight="1">
       <c r="A3" s="31" t="s">
@@ -3651,62 +3529,62 @@
       </c>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75">
+    <row r="6" spans="1:5" ht="16.5">
       <c r="A6" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B6" s="17"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75">
+    <row r="7" spans="1:5" ht="16.5">
       <c r="A7" s="17" t="s">
         <v>42</v>
       </c>
       <c r="B7" s="17"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75">
+    <row r="8" spans="1:5" ht="16.5">
       <c r="A8" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75">
+    <row r="9" spans="1:5" ht="16.5">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75">
+    <row r="10" spans="1:5" ht="16.5">
       <c r="A10" s="17" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5" ht="15.75">
+    <row r="11" spans="1:5" ht="16.5">
       <c r="A11" s="17" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75">
+    <row r="12" spans="1:5" ht="16.5">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -3715,11 +3593,11 @@
         <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" ht="16.5">
       <c r="E14" s="3"/>
     </row>
   </sheetData>
@@ -3731,5 +3609,9 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
+  </oleObjects>
 </worksheet>
 </file>
--- a/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
+++ b/System Analysis/WorkingRepository/Group4/SUBSET_26_3-6/Spread-sheet-SUBSET_26-2-6_Train-Position-Information.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="135" windowWidth="14115" windowHeight="6720"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="152">
   <si>
     <t>Template for System Analysis</t>
   </si>
@@ -278,9 +278,6 @@
     </r>
   </si>
   <si>
-    <t>This Functin describs the location principles applied in ETCS. Theirfore the location data and all basic management functions are specified. In addition the Position reporting to the RBC is presented.</t>
-  </si>
-  <si>
     <t>Validate Data</t>
   </si>
   <si>
@@ -404,162 +401,214 @@
     <t>{subset-26}</t>
   </si>
   <si>
-    <t xml:space="preserve">Here are the appropriate types and constants: 
+    <t>3.6.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.2.1</t>
+  </si>
+  <si>
+    <t>3.6.4.3</t>
+  </si>
+  <si>
+    <t>3.6.4.6</t>
+  </si>
+  <si>
+    <t>3.6.3.2.2</t>
+  </si>
+  <si>
+    <t>3.6.3.2.3</t>
+  </si>
+  <si>
+    <t>3.6.3.2.4</t>
+  </si>
+  <si>
+    <t>3.6.3.2.5</t>
+  </si>
+  <si>
+    <t>3.6.5.1.7</t>
+  </si>
+  <si>
+    <t>3.6.4.4</t>
+  </si>
+  <si>
+    <t>3.6.4.4.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.1</t>
+  </si>
+  <si>
+    <t>3.6.4.7.2</t>
+  </si>
+  <si>
+    <t>3.6.2.2.3</t>
+  </si>
+  <si>
+    <t>3.6.5.1.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4</t>
+  </si>
+  <si>
+    <t>3.6.5.1.4.1</t>
+  </si>
+  <si>
+    <t>3.6.5.1.8</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 a)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.1 b)</t>
+  </si>
+  <si>
+    <t>3.6.3.1.2</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3</t>
+  </si>
+  <si>
+    <t>3.6.3.1.3.1</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4</t>
+  </si>
+  <si>
+    <t>3.6.3.1.4.1</t>
+  </si>
+  <si>
+    <t>Balises</t>
+  </si>
+  <si>
+    <t>Train Position Data</t>
+  </si>
+  <si>
+    <t>Position-Report Parameter</t>
+  </si>
+  <si>
+    <t>Internal Data Storage for location Related Information</t>
+  </si>
+  <si>
+    <t>List of Track Information Objects (with location reference)</t>
+  </si>
+  <si>
+    <t>Input Variables</t>
+  </si>
+  <si>
+    <t>Track Information Objects (with location reference) extracted from a track message (Balise, Radio or Loop)</t>
+  </si>
+  <si>
+    <t>Track_Object</t>
+  </si>
+  <si>
+    <t>Subset_26</t>
+  </si>
+  <si>
+    <t>structure</t>
+  </si>
+  <si>
+    <t>3.6.1.1</t>
+  </si>
+  <si>
+    <t>nid_RBG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taken from the NID_LRBG for radio messages and NID_BG for balise messages, (Loops ?) </t>
+  </si>
+  <si>
+    <t>d_Distance</t>
+  </si>
+  <si>
+    <t>l_length</t>
+  </si>
+  <si>
+    <t>Distance to Object from Reference (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>if Profile Data, Length of Object  (calculated in reference to Q_SCALE)</t>
+  </si>
+  <si>
+    <t>x_value</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>Definies validity of object</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Gives Object specific data as a structure (specific for all track objects)</t>
+  </si>
+  <si>
+    <t>nominalLocation</t>
+  </si>
+  <si>
+    <t>Absolute Position on the trip</t>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>                    Scade Model (SUBSET_26-3-3-0_Chapter-3-6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>                    DetermineTrainLocation.docx</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">An equivalent representation of the model shown above in SCADE with all data types strictly defined and related to Subset 026-7 and -8 is this: </t>
+  </si>
+  <si>
+    <t>This model analyzes how to determine the train location information as specified in Subset026-3.6 “Location principles, train position and train orientation”. 
+A detailed description is given in the embedded file "DetermineTrainLocation.docx"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>All required data types strictly defined and related to Subset 026-7 and -8 are documented in "DetermineTrainLocation.docx", embedded on Tab "Description" of this sheet.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
-  </si>
-  <si>
-    <t>3.6.4.1</t>
-  </si>
-  <si>
-    <t>3.6.4.2.1</t>
-  </si>
-  <si>
-    <t>3.6.4.3</t>
-  </si>
-  <si>
-    <t>3.6.4.6</t>
-  </si>
-  <si>
-    <t>3.6.3.2.2</t>
-  </si>
-  <si>
-    <t>3.6.3.2.3</t>
-  </si>
-  <si>
-    <t>3.6.3.2.4</t>
-  </si>
-  <si>
-    <t>3.6.3.2.5</t>
-  </si>
-  <si>
-    <t>3.6.5.1.7</t>
-  </si>
-  <si>
-    <t>3.6.4.4</t>
-  </si>
-  <si>
-    <t>3.6.4.4.1</t>
-  </si>
-  <si>
-    <t>3.6.4.7.1</t>
-  </si>
-  <si>
-    <t>3.6.4.7.2</t>
-  </si>
-  <si>
-    <t>3.6.2.2.3</t>
-  </si>
-  <si>
-    <t>3.6.5.1.1</t>
-  </si>
-  <si>
-    <t>3.6.5.1.4</t>
-  </si>
-  <si>
-    <t>3.6.5.1.4.1</t>
-  </si>
-  <si>
-    <t>3.6.5.1.8</t>
-  </si>
-  <si>
-    <t>3.6.3.1.1 a)</t>
-  </si>
-  <si>
-    <t>3.6.3.1.1 b)</t>
-  </si>
-  <si>
-    <t>3.6.3.1.2</t>
-  </si>
-  <si>
-    <t>3.6.3.1.3</t>
-  </si>
-  <si>
-    <t>3.6.3.1.3.1</t>
-  </si>
-  <si>
-    <t>3.6.3.1.4</t>
-  </si>
-  <si>
-    <t>3.6.3.1.4.1</t>
-  </si>
-  <si>
-    <t>Balises</t>
-  </si>
-  <si>
-    <t>Train Position Data</t>
-  </si>
-  <si>
-    <t>Position-Report Parameter</t>
-  </si>
-  <si>
-    <t>Internal Data Storage for location Related Information</t>
-  </si>
-  <si>
-    <t>List of Track Information Objects (with location reference)</t>
-  </si>
-  <si>
-    <t>Input Variables</t>
-  </si>
-  <si>
-    <t>Track Information Objects (with location reference) extracted from a track message (Balise, Radio or Loop)</t>
-  </si>
-  <si>
-    <t>Track_Object</t>
-  </si>
-  <si>
-    <t>Subset_26</t>
-  </si>
-  <si>
-    <t>structure</t>
-  </si>
-  <si>
-    <t>3.6.1.1</t>
-  </si>
-  <si>
-    <t>nid_RBG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Taken from the NID_LRBG for radio messages and NID_BG for balise messages, (Loops ?) </t>
-  </si>
-  <si>
-    <t>d_Distance</t>
-  </si>
-  <si>
-    <t>l_length</t>
-  </si>
-  <si>
-    <t>Distance to Object from Reference (calculated in reference to Q_SCALE)</t>
-  </si>
-  <si>
-    <t>if Profile Data, Length of Object  (calculated in reference to Q_SCALE)</t>
-  </si>
-  <si>
-    <t>x_value</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>Definies validity of object</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Gives Object specific data as a structure (specific for all track objects)</t>
-  </si>
-  <si>
-    <t>nominalLocation</t>
-  </si>
-  <si>
-    <t>Absolute Position on the trip</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +675,12 @@
       <i/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFC00000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -986,13 +1041,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1013,6 +1068,53 @@
         <a:xfrm>
           <a:off x="0" y="7505700"/>
           <a:ext cx="16725900" cy="6029325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>173182</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>643370</xdr:colOff>
+      <xdr:row>114</xdr:row>
+      <xdr:rowOff>68407</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2052" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="15551727"/>
+          <a:ext cx="17857643" cy="8086725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1317,15 +1419,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z71" sqref="Z71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="22.5">
@@ -1390,7 +1493,7 @@
     </row>
     <row r="15" spans="1:7" ht="15.75">
       <c r="A15" s="21">
-        <v>41591</v>
+        <v>41598</v>
       </c>
       <c r="B15" t="s">
         <v>53</v>
@@ -1433,57 +1536,76 @@
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="15.75">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="18.75">
-      <c r="A26" s="2" t="s">
+    <row r="25" spans="1:5" ht="16.5">
+      <c r="A25" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5">
+      <c r="A26" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" ht="18.75">
+      <c r="A28" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="18.75">
-      <c r="A27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="66.75" customHeight="1">
-      <c r="A28" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" ht="18.75">
-      <c r="A31" s="2" t="s">
+    <row r="29" spans="1:5" ht="18.75">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" ht="111" customHeight="1">
+      <c r="A30" s="30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+    </row>
+    <row r="31" spans="1:5" ht="15.75">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" ht="18.75">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="19"/>
-      <c r="B66" t="s">
+    <row r="68" spans="1:2">
+      <c r="A68" s="19"/>
+      <c r="B68" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="20"/>
-      <c r="B67" t="s">
+    <row r="69" spans="1:2">
+      <c r="A69" s="20"/>
+      <c r="B69" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <oleObjects>
+    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="2049" r:id="rId4"/>
+  </oleObjects>
 </worksheet>
 </file>
 
@@ -1593,30 +1715,30 @@
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E4" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" s="22" t="s">
         <v>72</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>73</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I4" s="22">
         <v>1</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="60">
@@ -1625,12 +1747,12 @@
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
       <c r="E5" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F5" s="22"/>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
@@ -1644,7 +1766,7 @@
       <c r="F6" s="22"/>
       <c r="G6" s="22"/>
       <c r="H6" s="22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I6" s="22"/>
       <c r="J6" s="22"/>
@@ -1658,7 +1780,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
@@ -1672,7 +1794,7 @@
       <c r="F8" s="22"/>
       <c r="G8" s="22"/>
       <c r="H8" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8" s="22"/>
       <c r="J8" s="22"/>
@@ -1686,7 +1808,7 @@
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I9" s="22"/>
       <c r="J9" s="22"/>
@@ -1700,7 +1822,7 @@
       <c r="F10" s="22"/>
       <c r="G10" s="22"/>
       <c r="H10" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I10" s="22"/>
       <c r="J10" s="22"/>
@@ -1714,7 +1836,7 @@
       <c r="F11" s="22"/>
       <c r="G11" s="22"/>
       <c r="H11" s="22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I11" s="22"/>
       <c r="J11" s="22"/>
@@ -1733,30 +1855,30 @@
     </row>
     <row r="13" spans="1:10" ht="30">
       <c r="A13" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G13" s="22"/>
       <c r="H13" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I13" s="22">
         <v>1</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="90">
@@ -1765,14 +1887,14 @@
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
       <c r="E14" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I14" s="22"/>
       <c r="J14" s="22"/>
@@ -1786,7 +1908,7 @@
       <c r="F15" s="22"/>
       <c r="G15" s="22"/>
       <c r="H15" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I15" s="22"/>
       <c r="J15" s="22"/>
@@ -1800,7 +1922,7 @@
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22"/>
@@ -1819,30 +1941,30 @@
     </row>
     <row r="18" spans="1:10" ht="45">
       <c r="A18" s="23" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E18" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="G18" s="22"/>
       <c r="H18" s="22" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I18" s="22">
         <v>1</v>
       </c>
       <c r="J18" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90">
@@ -1851,14 +1973,14 @@
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F19" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
@@ -1872,7 +1994,7 @@
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
       <c r="H20" s="22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
@@ -1886,7 +2008,7 @@
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
       <c r="H21" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
@@ -1900,7 +2022,7 @@
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
       <c r="H22" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
@@ -1914,7 +2036,7 @@
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
       <c r="H23" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
@@ -1928,7 +2050,7 @@
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="22" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
@@ -1947,30 +2069,30 @@
     </row>
     <row r="26" spans="1:10" ht="45">
       <c r="A26" s="23" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E26" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F26" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G26" s="22"/>
       <c r="H26" s="22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I26" s="22">
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="30">
@@ -1979,12 +2101,12 @@
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
       <c r="E27" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
       <c r="H27" s="22" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27" s="22"/>
       <c r="J27" s="22"/>
@@ -1995,12 +2117,12 @@
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
       <c r="E28" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="22" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I28" s="22"/>
       <c r="J28" s="22"/>
@@ -2014,7 +2136,7 @@
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
       <c r="H29" s="22" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I29" s="22"/>
       <c r="J29" s="22"/>
@@ -2028,7 +2150,7 @@
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I30" s="22"/>
       <c r="J30" s="22"/>
@@ -2042,7 +2164,7 @@
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I31" s="22"/>
       <c r="J31" s="22"/>
@@ -2056,7 +2178,7 @@
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I32" s="22"/>
       <c r="J32" s="22"/>
@@ -2070,7 +2192,7 @@
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
@@ -2089,58 +2211,58 @@
     </row>
     <row r="35" spans="1:10" ht="30">
       <c r="A35" s="23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C35" s="14"/>
       <c r="D35" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E35" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="G35" s="22"/>
       <c r="H35" s="22" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I35" s="22">
         <v>0</v>
       </c>
       <c r="J35" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="45">
       <c r="A36" s="23" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I36" s="22">
         <v>0</v>
       </c>
       <c r="J36" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="45">
@@ -2149,14 +2271,14 @@
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
       <c r="E37" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I37" s="22"/>
       <c r="J37" s="14"/>
@@ -2170,7 +2292,7 @@
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I38" s="22"/>
       <c r="J38" s="14"/>
@@ -2184,7 +2306,7 @@
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I39" s="22"/>
       <c r="J39" s="14"/>
@@ -2198,7 +2320,7 @@
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I40" s="22"/>
       <c r="J40" s="14"/>
@@ -2539,7 +2661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -2667,7 +2789,7 @@
     </row>
     <row r="5" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A5" s="38" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B5" s="39"/>
       <c r="C5" s="39"/>
@@ -2683,31 +2805,31 @@
     </row>
     <row r="6" spans="1:12" s="26" customFormat="1" ht="30">
       <c r="A6" s="24" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
       <c r="I6" s="24"/>
       <c r="J6" s="24" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K6" s="24"/>
       <c r="L6" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A7" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
@@ -2720,18 +2842,18 @@
       <c r="J7" s="27"/>
       <c r="K7" s="27"/>
       <c r="L7" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A8" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
       <c r="D8" s="27"/>
       <c r="E8" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F8" s="27"/>
       <c r="G8" s="27"/>
@@ -2740,18 +2862,18 @@
       <c r="J8" s="27"/>
       <c r="K8" s="27"/>
       <c r="L8" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A9" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
       <c r="D9" s="27"/>
       <c r="E9" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27"/>
@@ -2760,18 +2882,18 @@
       <c r="J9" s="27"/>
       <c r="K9" s="27"/>
       <c r="L9" s="27" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A10" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
       <c r="D10" s="27"/>
       <c r="E10" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F10" s="27"/>
       <c r="G10" s="27"/>
@@ -2780,18 +2902,18 @@
       <c r="J10" s="27"/>
       <c r="K10" s="27"/>
       <c r="L10" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="26" customFormat="1" ht="31.5">
       <c r="A11" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B11" s="27"/>
       <c r="C11" s="27"/>
       <c r="D11" s="27"/>
       <c r="E11" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -2800,7 +2922,7 @@
       <c r="J11" s="27"/>
       <c r="K11" s="27"/>
       <c r="L11" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:12" s="26" customFormat="1" ht="15.75">
@@ -2819,7 +2941,7 @@
     </row>
     <row r="13" spans="1:12" s="26" customFormat="1" ht="15.75">
       <c r="A13" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="36"/>
       <c r="C13" s="36"/>
@@ -2835,7 +2957,7 @@
     </row>
     <row r="14" spans="1:12" s="25" customFormat="1">
       <c r="A14" s="24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -2851,7 +2973,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75">
       <c r="A15" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
@@ -2864,12 +2986,12 @@
       <c r="J15" s="27"/>
       <c r="K15" s="27"/>
       <c r="L15" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.75">
       <c r="A16" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -2882,18 +3004,18 @@
       <c r="J16" s="14"/>
       <c r="K16" s="14"/>
       <c r="L16" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="31.5">
       <c r="A17" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
       <c r="D17" s="27"/>
       <c r="E17" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17" s="27"/>
@@ -2902,18 +3024,18 @@
       <c r="J17" s="27"/>
       <c r="K17" s="27"/>
       <c r="L17" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="31.5">
       <c r="A18" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
       <c r="D18" s="27"/>
       <c r="E18" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18" s="27"/>
@@ -2922,7 +3044,7 @@
       <c r="J18" s="27"/>
       <c r="K18" s="27"/>
       <c r="L18" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -2969,7 +3091,7 @@
     </row>
     <row r="22" spans="1:12" s="25" customFormat="1">
       <c r="A22" s="24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
@@ -3055,7 +3177,7 @@
     </row>
     <row r="28" spans="1:12" s="25" customFormat="1">
       <c r="A28" s="24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
@@ -3141,7 +3263,7 @@
     </row>
     <row r="34" spans="1:12" s="25" customFormat="1">
       <c r="A34" s="24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
@@ -3490,7 +3612,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3548,7 +3670,7 @@
         <v>41</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -3557,7 +3679,7 @@
         <v>43</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" s="3"/>
     </row>
@@ -3566,7 +3688,7 @@
         <v>44</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -3575,7 +3697,7 @@
         <v>45</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E11" s="3"/>
     </row>
@@ -3584,7 +3706,7 @@
         <v>46</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -3593,7 +3715,7 @@
         <v>47</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -3609,9 +3731,5 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <oleObject progId="Dokument" dvAspect="DVASPECT_ICON" shapeId="1025" r:id="rId3"/>
-  </oleObjects>
 </worksheet>
 </file>